--- a/Planilha de Críticas.xlsx
+++ b/Planilha de Críticas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliasp\PycharmProjects\python_poo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Documents\GitHub\python_poo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9DCA45-0C5D-4540-9F23-E82F7516EE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC18F86-6DB3-4615-AF7A-493D0F29CF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="0" windowWidth="15405" windowHeight="10920" xr2:uid="{2CB27820-A556-4FB3-A9D8-7569D697D985}"/>
+    <workbookView xWindow="4515" yWindow="2325" windowWidth="16200" windowHeight="9360" xr2:uid="{2CB27820-A556-4FB3-A9D8-7569D697D985}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="2" r:id="rId1"/>
@@ -599,7 +599,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Planilha de Críticas.xlsx
+++ b/Planilha de Críticas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Documents\GitHub\python_poo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliasp\PycharmProjects\python_poo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC18F86-6DB3-4615-AF7A-493D0F29CF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD697C53-9627-43D1-9695-9F0FFD2AF551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="2325" windowWidth="16200" windowHeight="9360" xr2:uid="{2CB27820-A556-4FB3-A9D8-7569D697D985}"/>
+    <workbookView xWindow="1845" yWindow="0" windowWidth="15405" windowHeight="10920" xr2:uid="{2CB27820-A556-4FB3-A9D8-7569D697D985}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Número da conta</t>
   </si>
@@ -81,27 +81,6 @@
     <t>Código de despesa (novo)</t>
   </si>
   <si>
-    <t>79419348</t>
-  </si>
-  <si>
-    <t>82,50</t>
-  </si>
-  <si>
-    <t>78997500</t>
-  </si>
-  <si>
-    <t>0,36</t>
-  </si>
-  <si>
-    <t>90022157</t>
-  </si>
-  <si>
-    <t>9,14</t>
-  </si>
-  <si>
-    <t>1111113</t>
-  </si>
-  <si>
     <t>90289870</t>
   </si>
   <si>
@@ -114,16 +93,25 @@
     <t>036</t>
   </si>
   <si>
-    <t>050</t>
-  </si>
-  <si>
     <t>22</t>
   </si>
   <si>
-    <t>1111114</t>
-  </si>
-  <si>
-    <t>1111112</t>
+    <t>0,87</t>
+  </si>
+  <si>
+    <t>339,20</t>
+  </si>
+  <si>
+    <t>400,10</t>
+  </si>
+  <si>
+    <t>10,10</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>22505050</t>
   </si>
 </sst>
 </file>
@@ -173,11 +161,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -187,25 +178,25 @@
   <dxfs count="19">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -272,28 +263,28 @@
   <tableColumns count="11">
     <tableColumn id="13" xr3:uid="{3C15B794-C854-4EBE-9FC2-44DF1FD382B1}" name="Número da conta" dataDxfId="16" dataCellStyle="Normal"/>
     <tableColumn id="1" xr3:uid="{A19FD0B2-3D75-482C-A1C0-41D75624A9D8}" name="Código do procedimento (atual)" dataDxfId="15" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{5EBC0E84-E382-4816-8EB9-B0C77F159B3B}" name="Código do procedimento (novo)" dataDxfId="14" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{8BC04252-EC98-4145-BFD3-5559F1453F42}" name="Tipo de tabela (atual)" dataDxfId="13" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{E8503E05-5755-43EB-B398-9FEE20733D68}" name="Tipo de tabela (novo)" dataDxfId="12" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{91778288-5B9E-4C92-AB1E-C4F0306A7F97}" name="Grau de participação (atual)" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{7C072B6E-FE4E-4654-8E64-3501CAB74EEE}" name="Grau de participação (novo)" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{7B1504EA-5B24-4778-B5D2-213E0B3B29D3}" name="Código de despesa (atual)" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{EA296DE4-D3F9-43B5-AFCE-12CE2B5AC45C}" name="Código de despesa (novo)" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{2871A6AE-6BB5-4B21-9811-4A4FBDF6EF23}" name="Unidade de medida (atual)" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{5766CA33-27E9-45D3-A91B-851122A4D909}" name="Unidade de medida (novo)" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{5EBC0E84-E382-4816-8EB9-B0C77F159B3B}" name="Código do procedimento (novo)" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{8BC04252-EC98-4145-BFD3-5559F1453F42}" name="Tipo de tabela (atual)" dataDxfId="14" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{E8503E05-5755-43EB-B398-9FEE20733D68}" name="Tipo de tabela (novo)" dataDxfId="13" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{91778288-5B9E-4C92-AB1E-C4F0306A7F97}" name="Grau de participação (atual)" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{7C072B6E-FE4E-4654-8E64-3501CAB74EEE}" name="Grau de participação (novo)" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{7B1504EA-5B24-4778-B5D2-213E0B3B29D3}" name="Código de despesa (atual)" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{EA296DE4-D3F9-43B5-AFCE-12CE2B5AC45C}" name="Código de despesa (novo)" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{2871A6AE-6BB5-4B21-9811-4A4FBDF6EF23}" name="Unidade de medida (atual)" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{5766CA33-27E9-45D3-A91B-851122A4D909}" name="Unidade de medida (novo)" dataDxfId="7" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EF3F8EE2-2535-4055-995F-58277DA69320}" name="Tabela3" displayName="Tabela3" ref="A1:D7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D7" xr:uid="{EF3F8EE2-2535-4055-995F-58277DA69320}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EF3F8EE2-2535-4055-995F-58277DA69320}" name="Tabela3" displayName="Tabela3" ref="A1:D4" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:D4" xr:uid="{EF3F8EE2-2535-4055-995F-58277DA69320}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E041450B-B9A8-4984-80F1-F392EA1249E0}" name="Número da conta" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{34DF0F1F-4A50-4495-9A62-004334AB22FA}" name="Código do procedimento" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{AA7D6B72-0CFC-4D03-95C6-61EB48D14747}" name="Valor unitário (atual)" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{3D107E8F-238F-4D9E-A978-F4020F61C26E}" name="Valor unitário (novo)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{E041450B-B9A8-4984-80F1-F392EA1249E0}" name="Número da conta" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{34DF0F1F-4A50-4495-9A62-004334AB22FA}" name="Código do procedimento" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{AA7D6B72-0CFC-4D03-95C6-61EB48D14747}" name="Valor unitário (atual)" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{3D107E8F-238F-4D9E-A978-F4020F61C26E}" name="Valor unitário (novo)" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -599,7 +590,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B2:B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,43 +642,39 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -695,11 +682,8 @@
       <c r="B4" s="3">
         <v>40202666</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>23</v>
@@ -723,10 +707,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659A0C52-99B9-496E-B347-5D1AC694609B}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,48 +748,37 @@
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
-        <v>99</v>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>0.84</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>9.52</v>
+      <c r="B4" s="3">
+        <v>40202666</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="C7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Planilha de Críticas.xlsx
+++ b/Planilha de Críticas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliasp\PycharmProjects\python_poo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD697C53-9627-43D1-9695-9F0FFD2AF551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B9B986-486B-4D03-8C7F-7FF2CA0DB345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1845" yWindow="0" windowWidth="15405" windowHeight="10920" xr2:uid="{2CB27820-A556-4FB3-A9D8-7569D697D985}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Número da conta</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>22505050</t>
   </si>
 </sst>
 </file>
@@ -161,14 +158,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -178,25 +172,25 @@
   <dxfs count="19">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -263,28 +257,28 @@
   <tableColumns count="11">
     <tableColumn id="13" xr3:uid="{3C15B794-C854-4EBE-9FC2-44DF1FD382B1}" name="Número da conta" dataDxfId="16" dataCellStyle="Normal"/>
     <tableColumn id="1" xr3:uid="{A19FD0B2-3D75-482C-A1C0-41D75624A9D8}" name="Código do procedimento (atual)" dataDxfId="15" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{5EBC0E84-E382-4816-8EB9-B0C77F159B3B}" name="Código do procedimento (novo)" dataDxfId="0" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{8BC04252-EC98-4145-BFD3-5559F1453F42}" name="Tipo de tabela (atual)" dataDxfId="14" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{E8503E05-5755-43EB-B398-9FEE20733D68}" name="Tipo de tabela (novo)" dataDxfId="13" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{91778288-5B9E-4C92-AB1E-C4F0306A7F97}" name="Grau de participação (atual)" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{7C072B6E-FE4E-4654-8E64-3501CAB74EEE}" name="Grau de participação (novo)" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{7B1504EA-5B24-4778-B5D2-213E0B3B29D3}" name="Código de despesa (atual)" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{EA296DE4-D3F9-43B5-AFCE-12CE2B5AC45C}" name="Código de despesa (novo)" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{2871A6AE-6BB5-4B21-9811-4A4FBDF6EF23}" name="Unidade de medida (atual)" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{5766CA33-27E9-45D3-A91B-851122A4D909}" name="Unidade de medida (novo)" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{5EBC0E84-E382-4816-8EB9-B0C77F159B3B}" name="Código do procedimento (novo)" dataDxfId="14" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{8BC04252-EC98-4145-BFD3-5559F1453F42}" name="Tipo de tabela (atual)" dataDxfId="13" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{E8503E05-5755-43EB-B398-9FEE20733D68}" name="Tipo de tabela (novo)" dataDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{91778288-5B9E-4C92-AB1E-C4F0306A7F97}" name="Grau de participação (atual)" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{7C072B6E-FE4E-4654-8E64-3501CAB74EEE}" name="Grau de participação (novo)" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{7B1504EA-5B24-4778-B5D2-213E0B3B29D3}" name="Código de despesa (atual)" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{EA296DE4-D3F9-43B5-AFCE-12CE2B5AC45C}" name="Código de despesa (novo)" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{2871A6AE-6BB5-4B21-9811-4A4FBDF6EF23}" name="Unidade de medida (atual)" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{5766CA33-27E9-45D3-A91B-851122A4D909}" name="Unidade de medida (novo)" dataDxfId="6" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EF3F8EE2-2535-4055-995F-58277DA69320}" name="Tabela3" displayName="Tabela3" ref="A1:D4" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EF3F8EE2-2535-4055-995F-58277DA69320}" name="Tabela3" displayName="Tabela3" ref="A1:D4" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D4" xr:uid="{EF3F8EE2-2535-4055-995F-58277DA69320}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E041450B-B9A8-4984-80F1-F392EA1249E0}" name="Número da conta" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{34DF0F1F-4A50-4495-9A62-004334AB22FA}" name="Código do procedimento" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{AA7D6B72-0CFC-4D03-95C6-61EB48D14747}" name="Valor unitário (atual)" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{3D107E8F-238F-4D9E-A978-F4020F61C26E}" name="Valor unitário (novo)" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{E041450B-B9A8-4984-80F1-F392EA1249E0}" name="Número da conta" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{34DF0F1F-4A50-4495-9A62-004334AB22FA}" name="Código do procedimento" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{AA7D6B72-0CFC-4D03-95C6-61EB48D14747}" name="Valor unitário (atual)" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{3D107E8F-238F-4D9E-A978-F4020F61C26E}" name="Valor unitário (novo)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -590,7 +584,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,16 +652,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="1" t="s">

--- a/Planilha de Críticas.xlsx
+++ b/Planilha de Críticas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliasp\PycharmProjects\python_poo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B9B986-486B-4D03-8C7F-7FF2CA0DB345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18D1DA5-F1D0-4A5E-9D13-FC60E41344AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="0" windowWidth="15405" windowHeight="10920" xr2:uid="{2CB27820-A556-4FB3-A9D8-7569D697D985}"/>
+    <workbookView xWindow="1845" yWindow="0" windowWidth="15405" windowHeight="10920" activeTab="1" xr2:uid="{2CB27820-A556-4FB3-A9D8-7569D697D985}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Número da conta</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>22119221</t>
+  </si>
+  <si>
+    <t>22505050</t>
+  </si>
+  <si>
+    <t>1000</t>
   </si>
 </sst>
 </file>
@@ -583,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C61B51D-8349-4064-B6F9-68B2ADB2D555}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659A0C52-99B9-496E-B347-5D1AC694609B}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,7 +745,9 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
@@ -748,7 +759,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -756,7 +769,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">

--- a/Planilha de Críticas.xlsx
+++ b/Planilha de Críticas.xlsx
@@ -5,24 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliasp\PycharmProjects\python_poo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Informatica\Geral\Funcionais\Faturamento de Convênios\Alterador de Guias TISS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCA2746-F77B-4D14-B1BA-AC0D81272CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5428531E-E8E8-4BCA-99A2-2B37F346A54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23760" yWindow="0" windowWidth="15405" windowHeight="10920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" r:id="rId1"/>
     <sheet name="Valores" sheetId="2" r:id="rId2"/>
     <sheet name="Log" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="4" r:id="rId4"/>
+    <sheet name="Planilha2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="109">
   <si>
     <t>Número da conta</t>
   </si>
@@ -57,28 +59,61 @@
     <t>Unidade de medida (novo)</t>
   </si>
   <si>
+    <t>100885918</t>
+  </si>
+  <si>
+    <t>0002340147</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>78284740</t>
+  </si>
+  <si>
+    <t>0000163679</t>
+  </si>
+  <si>
+    <t>76250156</t>
+  </si>
+  <si>
+    <t>0000129250</t>
+  </si>
+  <si>
+    <t>79433570</t>
+  </si>
+  <si>
+    <t>0000313195</t>
+  </si>
+  <si>
     <t>90289870</t>
   </si>
   <si>
+    <t>0000049258</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>100885810</t>
+  </si>
+  <si>
+    <t>0000265314</t>
+  </si>
+  <si>
+    <t>100901433</t>
+  </si>
+  <si>
+    <t>0000247600</t>
+  </si>
+  <si>
+    <t>78988969</t>
+  </si>
+  <si>
+    <t>0000162137</t>
   </si>
   <si>
     <t>Código do procedimento</t>
@@ -90,27 +125,6 @@
     <t>Valor unitário (novo)</t>
   </si>
   <si>
-    <t>22119221</t>
-  </si>
-  <si>
-    <t>0,87</t>
-  </si>
-  <si>
-    <t>10,10</t>
-  </si>
-  <si>
-    <t>22505050</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>339,20</t>
-  </si>
-  <si>
-    <t>400,10</t>
-  </si>
-  <si>
     <t>Código de procedimento</t>
   </si>
   <si>
@@ -123,22 +137,220 @@
     <t>Para</t>
   </si>
   <si>
+    <t>22122510</t>
+  </si>
+  <si>
     <t>Código de tabela</t>
   </si>
   <si>
-    <t>Unidade de medida</t>
-  </si>
-  <si>
-    <t>036</t>
-  </si>
-  <si>
-    <t>050</t>
-  </si>
-  <si>
-    <t>40202666</t>
-  </si>
-  <si>
-    <t>Grau de participação</t>
+    <t>Conta 22130825 código 90093267 alterar quantidade DE: 0.27 PARA: 16.87 – alterar valor unitário DE: 1.612,87 PARA: 25,81.</t>
+  </si>
+  <si>
+    <t>Conta 22132011 código 90093410 alterar quantidade DE: 0.18 PARA: 93.77 - alterar valor unitário DE: 3.271,72 PARA: 6,28.</t>
+  </si>
+  <si>
+    <t>Conta 22132069 código 90093267 alterar quantidade DE: 0.18 PARA: 11.25 – alterar valor unitário DE: 1.612,87 PARA: 25,81.</t>
+  </si>
+  <si>
+    <t>Conta 22132139 código 90093410 alterar quantidade DE: 0.11 PARA: 57.31 - alterar valor unitário DE: 3.271,72 PARA: 6,28.</t>
+  </si>
+  <si>
+    <t>Conta 23000912 código 90093410 alterar quantidade DE: 0.16 PARA: 83.35 - alterar valor unitário DE: 3.271,72 PARA: 6,28.</t>
+  </si>
+  <si>
+    <t>Conta 23000924 código 90093267 alterar quantidade DE: 0.27 PARA: 16.87 – alterar valor unitário DE: 1.612,87 PARA: 25,81.</t>
+  </si>
+  <si>
+    <t>Conta 23002256 código 90093410 alterar quantidade DE: 0.12 PARA: 62.51 - alterar valor unitário DE: 3.271,72 PARA: 6,28.</t>
+  </si>
+  <si>
+    <t>Conta 23002862 código 90093267 alterar quantidade DE: 0.29 PARA: 18.12 – alterar valor unitário DE: 1.612,87 PARA: 25,81.</t>
+  </si>
+  <si>
+    <t>22117557;78997500;0,84;0,36</t>
+  </si>
+  <si>
+    <t>22117557;1200329452;99,00;82,50</t>
+  </si>
+  <si>
+    <t>22117557;90289870;0,87;0,84</t>
+  </si>
+  <si>
+    <t>22117557;90045505;21,38;19,34</t>
+  </si>
+  <si>
+    <t>22117557;90395972;9,16;8,79</t>
+  </si>
+  <si>
+    <t>22117557;90516532;9,00;8,64</t>
+  </si>
+  <si>
+    <t>22117557;90209117;13,47;12,94</t>
+  </si>
+  <si>
+    <t>22117557;90122941;69,06;66,30</t>
+  </si>
+  <si>
+    <t>22120707;78997500;0,84;0,36</t>
+  </si>
+  <si>
+    <t>22120707;1200329452;99,00;82,50</t>
+  </si>
+  <si>
+    <t>22120707;90289870;0,87;0,84</t>
+  </si>
+  <si>
+    <t>22120707;90045505;21,38;19,34</t>
+  </si>
+  <si>
+    <t>22120707;90395972;9,16;8,79</t>
+  </si>
+  <si>
+    <t>22120707;90516532;9,00;8,64</t>
+  </si>
+  <si>
+    <t>22120707;90209117;13,47;12,94</t>
+  </si>
+  <si>
+    <t>22120707;90122941;69,06;66,30</t>
+  </si>
+  <si>
+    <t>22122419;78997500;0,84;0,36</t>
+  </si>
+  <si>
+    <t>22122419;1200329452;99,00;82,50</t>
+  </si>
+  <si>
+    <t>22122419;90289870;0,87;0,84</t>
+  </si>
+  <si>
+    <t>22122419;90045505;21,38;19,34</t>
+  </si>
+  <si>
+    <t>22122419;90395972;9,16;8,79</t>
+  </si>
+  <si>
+    <t>22122419;90516532;9,00;8,64</t>
+  </si>
+  <si>
+    <t>22122419;90209117;13,47;12,94</t>
+  </si>
+  <si>
+    <t>22122419;90122941;69,06;66,30</t>
+  </si>
+  <si>
+    <t>22129083;90084195;12,58;11,78</t>
+  </si>
+  <si>
+    <t>22130825;90303164;0,90;0,86</t>
+  </si>
+  <si>
+    <t>22130825;90019830;9,25;8,88</t>
+  </si>
+  <si>
+    <t>22130825;90032772;2,81;2,64</t>
+  </si>
+  <si>
+    <t>22131309;78997500;0,84;0,36</t>
+  </si>
+  <si>
+    <t>22131316;78997500;0,84;0,36</t>
+  </si>
+  <si>
+    <t>22131540;90257537;19,32;18,55</t>
+  </si>
+  <si>
+    <t>22131540;90303164;0,90;0,86</t>
+  </si>
+  <si>
+    <t>22132011;90019830;9,25;8,88</t>
+  </si>
+  <si>
+    <t>22132011;90303164;0,90;0,86</t>
+  </si>
+  <si>
+    <t>22132069;90019830;9,25;8,88</t>
+  </si>
+  <si>
+    <t>22132069;90303164;0,90;0,86</t>
+  </si>
+  <si>
+    <t>22132069;90032772;2,81;2,64</t>
+  </si>
+  <si>
+    <t>22132138;90048580;20,76;19,93</t>
+  </si>
+  <si>
+    <t>22132138;90374959;19,01;18,25</t>
+  </si>
+  <si>
+    <t>22132138;90257537;19,32;18,55</t>
+  </si>
+  <si>
+    <t>22132139;90019830;9,25;8,88</t>
+  </si>
+  <si>
+    <t>22132139;90303164;0,90;0,86</t>
+  </si>
+  <si>
+    <t>23000258;78997500;0,84;0,36</t>
+  </si>
+  <si>
+    <t>23000626;78997500;0,84;0,36</t>
+  </si>
+  <si>
+    <t>23000912;90019830;9,25;8,88</t>
+  </si>
+  <si>
+    <t>23000912;90303164;0,90;0,86</t>
+  </si>
+  <si>
+    <t>23000924;90019830;9,25;8,88</t>
+  </si>
+  <si>
+    <t>23000924;90303164;0,90;0,86</t>
+  </si>
+  <si>
+    <t>23000924;90032772;2,81;2,64</t>
+  </si>
+  <si>
+    <t>23001703;90303164;0,90;0,86</t>
+  </si>
+  <si>
+    <t>23001703;90032772;2,81;2,64</t>
+  </si>
+  <si>
+    <t>23001703;90246438;536,10;514,66</t>
+  </si>
+  <si>
+    <t>23002256;90019830;9,25;8,88</t>
+  </si>
+  <si>
+    <t>23002256;90303164;0,90;0,86</t>
+  </si>
+  <si>
+    <t>23002647;90303164;0,90;0,86</t>
+  </si>
+  <si>
+    <t>23002862;90303164;0,90;0,86</t>
+  </si>
+  <si>
+    <t>23002862;90019865;7,97;7,66</t>
+  </si>
+  <si>
+    <t>23002862;90032772;2,81;2,64</t>
+  </si>
+  <si>
+    <t>23003032;90019830;9,25;8,88</t>
+  </si>
+  <si>
+    <t>23003032;90303164;0,90;0,86</t>
+  </si>
+  <si>
+    <t>23003824;78997500;0,84;0,36</t>
+  </si>
+  <si>
+    <t>23003824;90045505;21,38;19,34</t>
   </si>
 </sst>
 </file>
@@ -154,17 +366,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF535353"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -205,13 +415,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -299,8 +509,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela132" displayName="Tabela132" ref="A1:K4" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="A1:K4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela132" displayName="Tabela132" ref="A1:K9" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:K9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Número da conta" dataDxfId="16" dataCellStyle="Normal"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Código do procedimento (atual)" dataDxfId="15" dataCellStyle="Normal"/>
@@ -319,8 +529,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela3" displayName="Tabela3" ref="A1:D4" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela3" displayName="Tabela3" ref="A1:D92" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D92" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Número da conta" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Código do procedimento" dataDxfId="2"/>
@@ -628,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,8 +852,8 @@
     <col min="6" max="7" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="9.140625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="20" width="9.140625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -682,62 +892,172 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3">
-        <v>40202666</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -750,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +1083,7 @@
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="118.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="43.42578125" customWidth="1"/>
     <col min="15" max="15" width="37.85546875" customWidth="1"/>
     <col min="16" max="16" width="35.28515625" customWidth="1"/>
@@ -772,60 +1092,1065 @@
     <col min="19" max="19" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3">
-        <v>40202666</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>22117557</v>
+      </c>
+      <c r="B2" s="1">
+        <v>78997500</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>22117557</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1200329452</v>
+      </c>
+      <c r="C3" s="1">
+        <v>99</v>
+      </c>
+      <c r="D3" s="1">
+        <v>82.5</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>22117557</v>
+      </c>
+      <c r="B4" s="1">
+        <v>90289870</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>22117557</v>
+      </c>
+      <c r="B5" s="1">
+        <v>90045505</v>
+      </c>
+      <c r="C5" s="1">
+        <v>21.38</v>
+      </c>
+      <c r="D5" s="1">
+        <v>19.34</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>22117557</v>
+      </c>
+      <c r="B6" s="1">
+        <v>90395972</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9.16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>22117557</v>
+      </c>
+      <c r="B7" s="1">
+        <v>90516532</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8.64</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>22117557</v>
+      </c>
+      <c r="B8" s="1">
+        <v>90209117</v>
+      </c>
+      <c r="C8" s="1">
+        <v>13.47</v>
+      </c>
+      <c r="D8" s="1">
+        <v>12.94</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>22117557</v>
+      </c>
+      <c r="B9" s="1">
+        <v>90122941</v>
+      </c>
+      <c r="C9" s="1">
+        <v>69.06</v>
+      </c>
+      <c r="D9" s="1">
+        <v>66.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>22120707</v>
+      </c>
+      <c r="B11" s="1">
+        <v>78997500</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>22120707</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1200329452</v>
+      </c>
+      <c r="C12" s="1">
+        <v>99</v>
+      </c>
+      <c r="D12" s="1">
+        <v>82.5</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>22120707</v>
+      </c>
+      <c r="B13" s="1">
+        <v>90289870</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>22120707</v>
+      </c>
+      <c r="B14" s="1">
+        <v>90045505</v>
+      </c>
+      <c r="C14" s="1">
+        <v>21.38</v>
+      </c>
+      <c r="D14" s="1">
+        <v>19.34</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>22120707</v>
+      </c>
+      <c r="B15" s="1">
+        <v>90395972</v>
+      </c>
+      <c r="C15" s="1">
+        <v>9.16</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>22120707</v>
+      </c>
+      <c r="B16" s="1">
+        <v>90516532</v>
+      </c>
+      <c r="C16" s="1">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1">
+        <v>8.64</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>22120707</v>
+      </c>
+      <c r="B17" s="1">
+        <v>90209117</v>
+      </c>
+      <c r="C17" s="1">
+        <v>13.47</v>
+      </c>
+      <c r="D17" s="1">
+        <v>12.94</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>22120707</v>
+      </c>
+      <c r="B18" s="1">
+        <v>90122941</v>
+      </c>
+      <c r="C18" s="1">
+        <v>69.06</v>
+      </c>
+      <c r="D18" s="1">
+        <v>66.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>22122419</v>
+      </c>
+      <c r="B20" s="1">
+        <v>78997500</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>22122419</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1200329452</v>
+      </c>
+      <c r="C21" s="1">
+        <v>99</v>
+      </c>
+      <c r="D21" s="1">
+        <v>82.5</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>22122419</v>
+      </c>
+      <c r="B22" s="1">
+        <v>90289870</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22122419</v>
+      </c>
+      <c r="B23" s="1">
+        <v>90045505</v>
+      </c>
+      <c r="C23" s="1">
+        <v>21.38</v>
+      </c>
+      <c r="D23" s="1">
+        <v>19.34</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22122419</v>
+      </c>
+      <c r="B24" s="1">
+        <v>90395972</v>
+      </c>
+      <c r="C24" s="1">
+        <v>9.16</v>
+      </c>
+      <c r="D24" s="1">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>22122419</v>
+      </c>
+      <c r="B25" s="1">
+        <v>90516532</v>
+      </c>
+      <c r="C25" s="1">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1">
+        <v>8.64</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>22122419</v>
+      </c>
+      <c r="B26" s="1">
+        <v>90209117</v>
+      </c>
+      <c r="C26" s="1">
+        <v>13.47</v>
+      </c>
+      <c r="D26" s="1">
+        <v>12.94</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>22122419</v>
+      </c>
+      <c r="B27" s="1">
+        <v>90122941</v>
+      </c>
+      <c r="C27" s="1">
+        <v>69.06</v>
+      </c>
+      <c r="D27" s="1">
+        <v>66.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>22129083</v>
+      </c>
+      <c r="B29" s="1">
+        <v>90084195</v>
+      </c>
+      <c r="C29" s="1">
+        <v>12.58</v>
+      </c>
+      <c r="D29" s="1">
+        <v>11.78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>22130825</v>
+      </c>
+      <c r="B31" s="1">
+        <v>90303164</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>22130825</v>
+      </c>
+      <c r="B33" s="1">
+        <v>90019830</v>
+      </c>
+      <c r="C33" s="1">
+        <v>9.25</v>
+      </c>
+      <c r="D33" s="1">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>22130825</v>
+      </c>
+      <c r="B34" s="1">
+        <v>90032772</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2.81</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>22131309</v>
+      </c>
+      <c r="B36" s="1">
+        <v>78997500</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>22131316</v>
+      </c>
+      <c r="B38" s="1">
+        <v>78997500</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>22131540</v>
+      </c>
+      <c r="B40" s="1">
+        <v>90257537</v>
+      </c>
+      <c r="C40" s="1">
+        <v>19.32</v>
+      </c>
+      <c r="D40" s="1">
+        <v>18.55</v>
+      </c>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>22131540</v>
+      </c>
+      <c r="B41" s="1">
+        <v>90303164</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>22132011</v>
+      </c>
+      <c r="B43" s="1">
+        <v>90019830</v>
+      </c>
+      <c r="C43" s="1">
+        <v>9.25</v>
+      </c>
+      <c r="D43" s="1">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>22132011</v>
+      </c>
+      <c r="B44" s="1">
+        <v>90303164</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>22132069</v>
+      </c>
+      <c r="B47" s="1">
+        <v>90019830</v>
+      </c>
+      <c r="C47" s="1">
+        <v>9.25</v>
+      </c>
+      <c r="D47" s="1">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>22132069</v>
+      </c>
+      <c r="B48" s="1">
+        <v>90303164</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>22132069</v>
+      </c>
+      <c r="B49" s="1">
+        <v>90032772</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2.81</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>22132138</v>
+      </c>
+      <c r="B52" s="1">
+        <v>90048580</v>
+      </c>
+      <c r="C52" s="1">
+        <v>20.76</v>
+      </c>
+      <c r="D52" s="1">
+        <v>19.93</v>
+      </c>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>22132138</v>
+      </c>
+      <c r="B53" s="1">
+        <v>90374959</v>
+      </c>
+      <c r="C53" s="1">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="D53" s="1">
+        <v>18.25</v>
+      </c>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>22132138</v>
+      </c>
+      <c r="B54" s="1">
+        <v>90257537</v>
+      </c>
+      <c r="C54" s="1">
+        <v>19.32</v>
+      </c>
+      <c r="D54" s="1">
+        <v>18.55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>22132139</v>
+      </c>
+      <c r="B56" s="1">
+        <v>90019830</v>
+      </c>
+      <c r="C56" s="1">
+        <v>9.25</v>
+      </c>
+      <c r="D56" s="1">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>22132139</v>
+      </c>
+      <c r="B57" s="1">
+        <v>90303164</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>23000258</v>
+      </c>
+      <c r="B60" s="1">
+        <v>78997500</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>23000626</v>
+      </c>
+      <c r="B62" s="1">
+        <v>78997500</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>23000912</v>
+      </c>
+      <c r="B64" s="1">
+        <v>90019830</v>
+      </c>
+      <c r="C64" s="1">
+        <v>9.25</v>
+      </c>
+      <c r="D64" s="1">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>23000912</v>
+      </c>
+      <c r="B65" s="1">
+        <v>90303164</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>23000924</v>
+      </c>
+      <c r="B68" s="1">
+        <v>90019830</v>
+      </c>
+      <c r="C68" s="1">
+        <v>9.25</v>
+      </c>
+      <c r="D68" s="1">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>23000924</v>
+      </c>
+      <c r="B69" s="1">
+        <v>90303164</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>23000924</v>
+      </c>
+      <c r="B70" s="1">
+        <v>90032772</v>
+      </c>
+      <c r="C70" s="1">
+        <v>2.81</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>23001703</v>
+      </c>
+      <c r="B73" s="1">
+        <v>90303164</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>23001703</v>
+      </c>
+      <c r="B74" s="1">
+        <v>90032772</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2.81</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2.64</v>
+      </c>
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>23001703</v>
+      </c>
+      <c r="B75" s="1">
+        <v>90246438</v>
+      </c>
+      <c r="C75" s="1">
+        <v>536.1</v>
+      </c>
+      <c r="D75" s="1">
+        <v>514.66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>23002256</v>
+      </c>
+      <c r="B77" s="1">
+        <v>90019830</v>
+      </c>
+      <c r="C77" s="1">
+        <v>9.25</v>
+      </c>
+      <c r="D77" s="1">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>23002256</v>
+      </c>
+      <c r="B78" s="1">
+        <v>90303164</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>23002647</v>
+      </c>
+      <c r="B81" s="1">
+        <v>90303164</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="G82" s="4"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>23002862</v>
+      </c>
+      <c r="B83" s="1">
+        <v>90303164</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="G84" s="4"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>23002862</v>
+      </c>
+      <c r="B85" s="1">
+        <v>90019865</v>
+      </c>
+      <c r="C85" s="1">
+        <v>7.97</v>
+      </c>
+      <c r="D85" s="1">
+        <v>7.66</v>
+      </c>
+      <c r="G85" s="4"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>23002862</v>
+      </c>
+      <c r="B86" s="1">
+        <v>90032772</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2.81</v>
+      </c>
+      <c r="D86" s="1">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="G87" s="4"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>23003032</v>
+      </c>
+      <c r="B88" s="1">
+        <v>90019830</v>
+      </c>
+      <c r="C88" s="1">
+        <v>9.25</v>
+      </c>
+      <c r="D88" s="1">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="G88" s="4"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>23003032</v>
+      </c>
+      <c r="B89" s="1">
+        <v>90303164</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="G90" s="4"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>23003824</v>
+      </c>
+      <c r="B91" s="1">
+        <v>78997500</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="G91" s="4"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>23003824</v>
+      </c>
+      <c r="B92" s="1">
+        <v>90045505</v>
+      </c>
+      <c r="C92" s="1">
+        <v>21.38</v>
+      </c>
+      <c r="D92" s="1">
+        <v>19.34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -838,273 +2163,739 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39DDACD-27D6-467A-B824-EDDAE06C1E9D}">
+  <dimension ref="A1:A91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="118.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D374F19A-6FCE-43BF-A32D-68F133D3F290}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="118.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>